--- a/data/trans_orig/P23_1_R_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_R_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>92318</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74296</v>
+        <v>76144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110069</v>
+        <v>112300</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2151468808066501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.173146439878855</v>
+        <v>0.1774540863185912</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2565154674644824</v>
+        <v>0.261716044862572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -763,19 +763,19 @@
         <v>59002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45471</v>
+        <v>45526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75045</v>
+        <v>73213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1700067181072777</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1310185315326016</v>
+        <v>0.1311781590161141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2162329087714726</v>
+        <v>0.2109540114129061</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -784,19 +784,19 @@
         <v>151319</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129172</v>
+        <v>129959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>173093</v>
+        <v>174460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1949624097949429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1664272077974049</v>
+        <v>0.1674413477737322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2230160198465412</v>
+        <v>0.2247764382577388</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>336774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>319023</v>
+        <v>316792</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354796</v>
+        <v>352948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.78485311919335</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7434845325355175</v>
+        <v>0.7382839551374279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.826853560121145</v>
+        <v>0.8225459136814088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>274</v>
@@ -834,19 +834,19 @@
         <v>288053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272010</v>
+        <v>273842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301584</v>
+        <v>301529</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8299932818927224</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7837670912285274</v>
+        <v>0.7890459885870938</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8689814684673984</v>
+        <v>0.8688218409838859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>586</v>
@@ -855,19 +855,19 @@
         <v>624828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>603054</v>
+        <v>601687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>646975</v>
+        <v>646188</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8050375902050572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.776983980153459</v>
+        <v>0.7752235617422613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8335727922025951</v>
+        <v>0.8325586522262679</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>94010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78006</v>
+        <v>76151</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110967</v>
+        <v>111237</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2499238201853824</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2073776738640018</v>
+        <v>0.2024450498598468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2950029386351147</v>
+        <v>0.2957222235046034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -980,19 +980,19 @@
         <v>92318</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76499</v>
+        <v>76665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112032</v>
+        <v>110259</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2486719652793485</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2060605275503456</v>
+        <v>0.2065060525005583</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3017738284352619</v>
+        <v>0.2969966775779054</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>175</v>
@@ -1001,19 +1001,19 @@
         <v>186329</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>163828</v>
+        <v>162834</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210408</v>
+        <v>209965</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2493020041268262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2191973287451615</v>
+        <v>0.2178663626759678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2815200723930889</v>
+        <v>0.2809262494858197</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>282145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265188</v>
+        <v>264918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298149</v>
+        <v>300004</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7500761798146176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7049970613648855</v>
+        <v>0.7042777764953966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7926223261359983</v>
+        <v>0.7975549501401531</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>263</v>
@@ -1051,19 +1051,19 @@
         <v>278928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>259214</v>
+        <v>260987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>294747</v>
+        <v>294581</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7513280347206516</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6982261715647381</v>
+        <v>0.7030033224220947</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7939394724496545</v>
+        <v>0.7934939474994416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>529</v>
@@ -1072,19 +1072,19 @@
         <v>561072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>536993</v>
+        <v>537436</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583573</v>
+        <v>584567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7506979958731738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7184799276069112</v>
+        <v>0.7190737505141802</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7808026712548385</v>
+        <v>0.7821336373240318</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>202559</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182202</v>
+        <v>180625</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>227147</v>
+        <v>224048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3881070805271308</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3491029826426721</v>
+        <v>0.3460824366311152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.435219237595157</v>
+        <v>0.4292813096010133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1197,19 +1197,19 @@
         <v>46007</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34928</v>
+        <v>34574</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58235</v>
+        <v>58861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2769457123825822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2102527728606737</v>
+        <v>0.2081201673432902</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3505521445739997</v>
+        <v>0.3543225330018179</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>230</v>
@@ -1218,19 +1218,19 @@
         <v>248565</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>223223</v>
+        <v>225732</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>274829</v>
+        <v>275413</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3612677510364968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3244351392667767</v>
+        <v>0.3280823232942631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.399439656760012</v>
+        <v>0.4002887926114378</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>319355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294767</v>
+        <v>297866</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>339712</v>
+        <v>341289</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6118929194728692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.564780762404843</v>
+        <v>0.5707186903989868</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6508970173573279</v>
+        <v>0.6539175633688848</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>109</v>
@@ -1268,19 +1268,19 @@
         <v>120116</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>107888</v>
+        <v>107262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131195</v>
+        <v>131549</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7230542876174177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6494478554260004</v>
+        <v>0.6456774669981817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7897472271393263</v>
+        <v>0.7918798326567096</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>425</v>
@@ -1289,19 +1289,19 @@
         <v>439471</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>413207</v>
+        <v>412623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>464813</v>
+        <v>462304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6387322489635032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6005603432399879</v>
+        <v>0.5997112073885621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6755648607332232</v>
+        <v>0.6719176767057369</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>402190</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>370789</v>
+        <v>369070</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>437196</v>
+        <v>432203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3501035914939683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3227693020156386</v>
+        <v>0.3212733690668682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3805757985563079</v>
+        <v>0.3762300887986852</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>279</v>
@@ -1414,19 +1414,19 @@
         <v>284214</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>258022</v>
+        <v>258515</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>312367</v>
+        <v>311774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3445233389736347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3127730576583465</v>
+        <v>0.3133713502429986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3786506815576696</v>
+        <v>0.3779321452662377</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>659</v>
@@ -1435,19 +1435,19 @@
         <v>686404</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>645659</v>
+        <v>644039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>728291</v>
+        <v>727154</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3477712368776997</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3271274114201945</v>
+        <v>0.3263068878025125</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3689936792471022</v>
+        <v>0.3684174541125154</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>746584</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>711578</v>
+        <v>716571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>777985</v>
+        <v>779704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6498964085060317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6194242014436929</v>
+        <v>0.6237699112013149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6772306979843615</v>
+        <v>0.6787266309331322</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>518</v>
@@ -1485,19 +1485,19 @@
         <v>540734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>512581</v>
+        <v>513174</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>566926</v>
+        <v>566433</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6554766610263653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6213493184423305</v>
+        <v>0.6220678547337626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6872269423416536</v>
+        <v>0.6866286497570017</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1240</v>
@@ -1506,19 +1506,19 @@
         <v>1287318</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1245431</v>
+        <v>1246568</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1328063</v>
+        <v>1329683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6522287631223004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6310063207528978</v>
+        <v>0.6315825458874845</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6728725885798055</v>
+        <v>0.6736931121974873</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>231499</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>209436</v>
+        <v>206236</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>256097</v>
+        <v>255279</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3729611597694265</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3374152538852375</v>
+        <v>0.3322600770084704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4125902846467448</v>
+        <v>0.4112712441791683</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -1631,19 +1631,19 @@
         <v>207106</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181606</v>
+        <v>180938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>233658</v>
+        <v>232839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2809528307246408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2463613401947544</v>
+        <v>0.2454541528753882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3169729717897632</v>
+        <v>0.3158621043980239</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>412</v>
@@ -1652,19 +1652,19 @@
         <v>438605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>405222</v>
+        <v>402485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>474098</v>
+        <v>474335</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3230117052034055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2984268664966065</v>
+        <v>0.2964108301355524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3491509379174079</v>
+        <v>0.3493253448985617</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>389207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>364609</v>
+        <v>365427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>411270</v>
+        <v>414470</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6270388402305734</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5874097153532553</v>
+        <v>0.5887287558208317</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6625847461147625</v>
+        <v>0.6677399229915297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>498</v>
@@ -1702,19 +1702,19 @@
         <v>530049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>503497</v>
+        <v>504316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>555549</v>
+        <v>556217</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7190471692753592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6830270282102366</v>
+        <v>0.6841378956019762</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7536386598052455</v>
+        <v>0.7545458471246118</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>883</v>
@@ -1723,19 +1723,19 @@
         <v>919256</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>883763</v>
+        <v>883526</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>952639</v>
+        <v>955376</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6769882947965945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6508490620825923</v>
+        <v>0.6506746551014382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7015731335033936</v>
+        <v>0.7035891698644475</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>63753</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51185</v>
+        <v>49571</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79263</v>
+        <v>77888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.222022665215468</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1782537465925448</v>
+        <v>0.1726354668431025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2760391705924843</v>
+        <v>0.2712488390200001</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>152</v>
@@ -1848,19 +1848,19 @@
         <v>158928</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>136956</v>
+        <v>136604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>184058</v>
+        <v>184448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1472060878687327</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1268548246737334</v>
+        <v>0.1265283919551516</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1704820259986516</v>
+        <v>0.1708440113252644</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>213</v>
@@ -1869,19 +1869,19 @@
         <v>222681</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>195491</v>
+        <v>196389</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>250112</v>
+        <v>250486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1629242638154377</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1430306108979446</v>
+        <v>0.1436881603521273</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1829939198186967</v>
+        <v>0.1832680962369889</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>223392</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207882</v>
+        <v>209257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235960</v>
+        <v>237574</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7779773347845319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7239608294075157</v>
+        <v>0.7287511609799998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8217462534074551</v>
+        <v>0.8273645331568975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>838</v>
@@ -1919,19 +1919,19 @@
         <v>920702</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>895572</v>
+        <v>895182</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>942674</v>
+        <v>943026</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8527939121312673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8295179740013484</v>
+        <v>0.8291559886747355</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8731451753262666</v>
+        <v>0.8734716080448484</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1049</v>
@@ -1940,19 +1940,19 @@
         <v>1144094</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1116663</v>
+        <v>1116289</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1171284</v>
+        <v>1170386</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8370757361845623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8170060801813031</v>
+        <v>0.8167319037630112</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8569693891020552</v>
+        <v>0.8563118396478727</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>1086328</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1035887</v>
+        <v>1025311</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1145583</v>
+        <v>1142652</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3210392654433643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3061326919003199</v>
+        <v>0.3030072758121101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.338550677358365</v>
+        <v>0.3376844390522193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>821</v>
@@ -2065,19 +2065,19 @@
         <v>847575</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>798506</v>
+        <v>798683</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>898543</v>
+        <v>902742</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2403678964640633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2264521260698009</v>
+        <v>0.2265023035896108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2548221433112922</v>
+        <v>0.2560128525882041</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1831</v>
@@ -2086,19 +2086,19 @@
         <v>1933903</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1855319</v>
+        <v>1857581</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2003343</v>
+        <v>2009442</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2798725085645956</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2684998576373783</v>
+        <v>0.2688272057757785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2899218451930214</v>
+        <v>0.2908044198910536</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2297457</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2238202</v>
+        <v>2241133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2347898</v>
+        <v>2358474</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6789607345566357</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.661449322641635</v>
+        <v>0.6623155609477807</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.69386730809968</v>
+        <v>0.6969927241878898</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2500</v>
@@ -2136,19 +2136,19 @@
         <v>2678582</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2627614</v>
+        <v>2623415</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2727651</v>
+        <v>2727474</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7596321035359367</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7451778566887072</v>
+        <v>0.7439871474117954</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.773547873930199</v>
+        <v>0.7734976964103889</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4712</v>
@@ -2157,19 +2157,19 @@
         <v>4976040</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4906600</v>
+        <v>4900501</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5054624</v>
+        <v>5052362</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7201274914354044</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7100781548069786</v>
+        <v>0.7091955801089465</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7315001423626217</v>
+        <v>0.7311727942242215</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>85344</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69861</v>
+        <v>66615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103496</v>
+        <v>103965</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.154997096712434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1268769956531829</v>
+        <v>0.1209830234718173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1879630359997522</v>
+        <v>0.1888150218652572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2524,19 +2524,19 @@
         <v>57273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46209</v>
+        <v>46270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69591</v>
+        <v>70188</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1172646125655306</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09461112824044909</v>
+        <v>0.09473569951222666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1424843949046377</v>
+        <v>0.1437068363754804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -2545,19 +2545,19 @@
         <v>142618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122153</v>
+        <v>121960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165172</v>
+        <v>164813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1372603893539221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1175641935549117</v>
+        <v>0.1173785861514071</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1589673533069064</v>
+        <v>0.15862212662013</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>465274</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447122</v>
+        <v>446653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>480757</v>
+        <v>484003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8450029032875661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8120369640002477</v>
+        <v>0.8111849781347429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.873123004346817</v>
+        <v>0.8790169765281826</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>604</v>
@@ -2595,19 +2595,19 @@
         <v>431138</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>418820</v>
+        <v>418223</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>442202</v>
+        <v>442141</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8827353874344696</v>
+        <v>0.8827353874344693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8575156050953624</v>
+        <v>0.85629316362452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.905388871759551</v>
+        <v>0.9052643004877735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1073</v>
@@ -2616,19 +2616,19 @@
         <v>896411</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>873857</v>
+        <v>874216</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>916876</v>
+        <v>917069</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.862739610646078</v>
+        <v>0.8627396106460778</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8410326466930936</v>
+        <v>0.8413778733798699</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8824358064450882</v>
+        <v>0.8826214138485928</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>83881</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68894</v>
+        <v>69220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103504</v>
+        <v>103173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1735896372977331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1425756890157162</v>
+        <v>0.1432492294305192</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.214200386907825</v>
+        <v>0.2135153904514932</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>104</v>
@@ -2741,19 +2741,19 @@
         <v>79278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65109</v>
+        <v>65667</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94232</v>
+        <v>94949</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1873542542571334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1538704288178991</v>
+        <v>0.1551890213099193</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.22269489012669</v>
+        <v>0.2243895099112156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -2762,19 +2762,19 @@
         <v>163158</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141283</v>
+        <v>142521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185146</v>
+        <v>187429</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1800158161122132</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1558801813754705</v>
+        <v>0.1572466235665265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2042755776067764</v>
+        <v>0.2067940054072372</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>399331</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>379708</v>
+        <v>380039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414318</v>
+        <v>413992</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.826410362702267</v>
+        <v>0.8264103627022668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7857996130921744</v>
+        <v>0.7864846095485069</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8574243109842837</v>
+        <v>0.8567507705694808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>486</v>
@@ -2812,19 +2812,19 @@
         <v>343865</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328911</v>
+        <v>328194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358034</v>
+        <v>357476</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8126457457428665</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7773051098733099</v>
+        <v>0.7756104900887844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8461295711821009</v>
+        <v>0.8448109786900808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>886</v>
@@ -2833,19 +2833,19 @@
         <v>743197</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>721209</v>
+        <v>718926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>765072</v>
+        <v>763834</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8199841838877868</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7957244223932236</v>
+        <v>0.7932059945927628</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8441198186245293</v>
+        <v>0.8427533764334737</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>118425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98152</v>
+        <v>97523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138563</v>
+        <v>138703</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2511061546270393</v>
+        <v>0.2511061546270392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2081191999960497</v>
+        <v>0.2067864660667443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2938074575838444</v>
+        <v>0.2941045359347035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -2958,19 +2958,19 @@
         <v>25221</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17671</v>
+        <v>17628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33635</v>
+        <v>32402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1345137403232374</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09424869096152926</v>
+        <v>0.09401899543064096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1793892084822703</v>
+        <v>0.1728154741748598</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>153</v>
@@ -2979,19 +2979,19 @@
         <v>143646</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124521</v>
+        <v>123411</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167212</v>
+        <v>168388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2179390136410057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1889230869233146</v>
+        <v>0.1872394564451566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2536932545066944</v>
+        <v>0.2554781646593364</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>353187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>333049</v>
+        <v>332909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>373460</v>
+        <v>374089</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7488938453729609</v>
+        <v>0.7488938453729608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7061925424161556</v>
+        <v>0.7058954640652964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7918808000039503</v>
+        <v>0.7932135339332556</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>250</v>
@@ -3029,19 +3029,19 @@
         <v>162276</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153862</v>
+        <v>155095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169826</v>
+        <v>169869</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8654862596767625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8206107915177298</v>
+        <v>0.8271845258251401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9057513090384707</v>
+        <v>0.9059810045693589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -3050,19 +3050,19 @@
         <v>515463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>491897</v>
+        <v>490721</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>534588</v>
+        <v>535698</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7820609863589942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7463067454933056</v>
+        <v>0.7445218353406636</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8110769130766854</v>
+        <v>0.8127605435548434</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>333415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299526</v>
+        <v>300938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>364246</v>
+        <v>366694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.294576644290806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2646353200751839</v>
+        <v>0.2658828385552517</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3218168408155069</v>
+        <v>0.3239797100987331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -3175,19 +3175,19 @@
         <v>211120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>188363</v>
+        <v>189509</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233581</v>
+        <v>233917</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2453428499747015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2188973200196734</v>
+        <v>0.2202291262224332</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2714454832196944</v>
+        <v>0.2718361169367008</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>578</v>
@@ -3196,19 +3196,19 @@
         <v>544534</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>503758</v>
+        <v>506827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>587563</v>
+        <v>590135</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2733122696279955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2528460498299217</v>
+        <v>0.2543861251325634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2949091348903333</v>
+        <v>0.2962002902910171</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>798428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>767597</v>
+        <v>765149</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>832317</v>
+        <v>830905</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7054233557091938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6781831591844927</v>
+        <v>0.6760202899012662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.735364679924816</v>
+        <v>0.7341171614447481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>949</v>
@@ -3246,19 +3246,19 @@
         <v>649389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626928</v>
+        <v>626592</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>672146</v>
+        <v>671000</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7546571500252984</v>
+        <v>0.7546571500252985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7285545167803056</v>
+        <v>0.7281638830632993</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7811026799803266</v>
+        <v>0.7797708737775669</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1769</v>
@@ -3267,19 +3267,19 @@
         <v>1447818</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1404789</v>
+        <v>1402217</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1488594</v>
+        <v>1485525</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7266877303720045</v>
+        <v>0.7266877303720044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7050908651096668</v>
+        <v>0.7037997097089825</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7471539501700785</v>
+        <v>0.7456138748674364</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>176188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152188</v>
+        <v>153556</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201564</v>
+        <v>202112</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3108013499357594</v>
+        <v>0.3108013499357593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2684642052291686</v>
+        <v>0.2708785142433496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3555658821587929</v>
+        <v>0.3565334010952035</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -3392,19 +3392,19 @@
         <v>159560</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141063</v>
+        <v>142366</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180747</v>
+        <v>180998</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1922079214588947</v>
+        <v>0.1922079214588948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1699258118396219</v>
+        <v>0.1714954763998521</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.217729771495327</v>
+        <v>0.2180323145510376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>384</v>
@@ -3413,19 +3413,19 @@
         <v>335748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>306432</v>
+        <v>305880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>369053</v>
+        <v>370121</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2403304581746528</v>
+        <v>0.2403304581746527</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.219346058399899</v>
+        <v>0.2189506999672032</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2641707709781637</v>
+        <v>0.2649346841713604</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>390694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>365318</v>
+        <v>364770</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>414694</v>
+        <v>413326</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6891986500642407</v>
+        <v>0.6891986500642406</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.644434117841207</v>
+        <v>0.6434665989047959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7315357947708313</v>
+        <v>0.7291214857566505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1065</v>
@@ -3463,19 +3463,19 @@
         <v>670585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>649398</v>
+        <v>649147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>689082</v>
+        <v>687779</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8077920785411054</v>
+        <v>0.8077920785411055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7822702285046729</v>
+        <v>0.7819676854489626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8300741881603781</v>
+        <v>0.8285045236001479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1451</v>
@@ -3484,19 +3484,19 @@
         <v>1061278</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1027973</v>
+        <v>1026905</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1090594</v>
+        <v>1091146</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7596695418253472</v>
+        <v>0.7596695418253471</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7358292290218362</v>
+        <v>0.7350653158286395</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7806539416001008</v>
+        <v>0.7810493000327967</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>15183</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7142</v>
+        <v>6707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27466</v>
+        <v>29639</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06431320277431167</v>
+        <v>0.0643132027743117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03025255408774153</v>
+        <v>0.02840903777302965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1163405763290644</v>
+        <v>0.1255420739764875</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -3609,19 +3609,19 @@
         <v>81176</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65840</v>
+        <v>66328</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100566</v>
+        <v>99819</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0961485671399855</v>
+        <v>0.09614856713998551</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07798383282141622</v>
+        <v>0.07856178543117577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1191138229705938</v>
+        <v>0.1182295381660897</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -3630,19 +3630,19 @@
         <v>96360</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78137</v>
+        <v>78780</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>118748</v>
+        <v>118787</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08919177730110432</v>
+        <v>0.08919177730110431</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07232422199614461</v>
+        <v>0.07291927260881814</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1099141570178042</v>
+        <v>0.1099504113458652</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>220903</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>208620</v>
+        <v>206447</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228944</v>
+        <v>229379</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9356867972256884</v>
+        <v>0.9356867972256885</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8836594236709356</v>
+        <v>0.8744579260235121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9697474459122584</v>
+        <v>0.9715909622269702</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1060</v>
@@ -3680,19 +3680,19 @@
         <v>763105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>743715</v>
+        <v>744462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>778441</v>
+        <v>777953</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9038514328600145</v>
+        <v>0.9038514328600146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8808861770294061</v>
+        <v>0.8817704618339102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9220161671785838</v>
+        <v>0.921438214568824</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1162</v>
@@ -3701,19 +3701,19 @@
         <v>984007</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>961619</v>
+        <v>961580</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1002230</v>
+        <v>1001587</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9108082226988958</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8900858429821961</v>
+        <v>0.8900495886541352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9276757780038556</v>
+        <v>0.927080727391182</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>812435</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>757169</v>
+        <v>756616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>869425</v>
+        <v>865642</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2361556150936676</v>
+        <v>0.2361556150936675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2200912178042156</v>
+        <v>0.2199303940964715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2527212289541982</v>
+        <v>0.2516216514169377</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>828</v>
@@ -3826,19 +3826,19 @@
         <v>613628</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>576722</v>
+        <v>572972</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>655263</v>
+        <v>651730</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1688582341048471</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1587023155385396</v>
+        <v>0.1576705157938618</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1803152180760018</v>
+        <v>0.1793430403885821</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1575</v>
@@ -3847,19 +3847,19 @@
         <v>1426063</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1359442</v>
+        <v>1361219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1499762</v>
+        <v>1506648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2015854336451144</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1921679489496882</v>
+        <v>0.1924191338148368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2120033136350372</v>
+        <v>0.2129768067809515</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>2627817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2570827</v>
+        <v>2574610</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2683083</v>
+        <v>2683636</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7638443849063326</v>
+        <v>0.7638443849063324</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7472787710458018</v>
+        <v>0.7483783485830621</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7799087821957843</v>
+        <v>0.7800696059035283</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4414</v>
@@ -3897,19 +3897,19 @@
         <v>3020357</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2978722</v>
+        <v>2982255</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3057263</v>
+        <v>3061013</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8311417658951529</v>
+        <v>0.8311417658951528</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8196847819239983</v>
+        <v>0.820656959611418</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8412976844614602</v>
+        <v>0.8423294842061383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6965</v>
@@ -3918,19 +3918,19 @@
         <v>5648174</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5574475</v>
+        <v>5567589</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5714795</v>
+        <v>5713018</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7984145663548857</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7879966863649628</v>
+        <v>0.7870231932190478</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8078320510503113</v>
+        <v>0.8075808661851631</v>
       </c>
     </row>
     <row r="24">
